--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D548C768-B3E7-4806-9D0A-E87A3BC19200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA61B914-BC29-4920-B399-A53DD242D38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Quotation" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Quotation!$A$1:$F$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Quotation!$A$1:$F$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>客戶名稱：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,6 +212,10 @@
     </r>
   </si>
   <si>
+    <t>FC Technical Support Warranty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 交貨日期：客戶下單後約2-3週。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,11 +231,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="&quot;NT$&quot;#,##0_);[Red]\(&quot;NT$&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0_);[Red]\(&quot;NT$&quot;#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -293,15 +297,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
       <sz val="28"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
@@ -315,9 +310,86 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="標楷體"/>
       <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -329,7 +401,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -560,12 +632,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -589,8 +687,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -600,8 +777,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -629,9 +807,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -644,70 +819,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" justifyLastLine="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -723,19 +882,98 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,37 +997,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="0,0_x000a__x000a_NA_x000a__x000a_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="千分位" xfId="5" builtinId="3"/>
+    <cellStyle name="千分位 2" xfId="6" xr:uid="{2C094910-4CFC-4A5E-869A-291011D1586A}"/>
     <cellStyle name="超連結" xfId="4" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
@@ -891,15 +1133,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>348615</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>360046</xdr:rowOff>
+      <xdr:rowOff>363856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>258632</xdr:rowOff>
+      <xdr:rowOff>251012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -936,14 +1178,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1173480</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2520813</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>100309</xdr:rowOff>
+      <xdr:colOff>2534148</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1269,10 +1511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1281,180 +1523,182 @@
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="49.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="51" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="51" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="52" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="D6" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="60" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="19"/>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="16"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1470,173 +1714,253 @@
       <c r="E19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="18" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="7"/>
-      <c r="D24" s="47" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="24">
-        <f>SUM(F20:F23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="E29" s="68"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="49" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="25">
-        <f>ROUND(F24*0.05,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="53" t="s">
+      <c r="E30" s="70"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="55"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="26">
-        <f>SUM(F24:F25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="E31" s="78"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E30" s="19"/>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E31" s="19"/>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E32" s="19"/>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E35" s="16"/>
+      <c r="F35" s="20"/>
+      <c r="M35" s="34"/>
+    </row>
+    <row r="36" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E36" s="16"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E37" s="16"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="B38" s="60"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="B39" s="61"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="B40" s="62"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="23"/>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
+      <c r="B41" s="63"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:13" s="3" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="34" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E38" s="19"/>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E39" s="19"/>
-      <c r="F39" s="23"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E43" s="16"/>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E44" s="16"/>
+      <c r="F44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D4:F5"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F3"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
@@ -1645,19 +1969,9 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C20:C21">
+  <conditionalFormatting sqref="C20:C26 M35">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="between">
       <formula>"WIN7"</formula>
       <formula>"WIN7"</formula>
